--- a/Outputs/1. Budget/Output Files/1500000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Output Files/1500000/Output_1_27.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2276451.075316477</v>
+        <v>2263877.78197924</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>79.02272265851249</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>101.7806877295493</v>
+        <v>101.780687729549</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.8243835520302</v>
+        <v>223.82438355203</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>378.1699711250234</v>
+        <v>378.1699711250225</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>114.9503771951929</v>
+        <v>114.9503771951925</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>188.3604874445082</v>
+        <v>188.3604874445084</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>112.2536425510792</v>
+        <v>112.2536425510787</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>204.1291651532058</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>70.69720373272575</v>
+        <v>70.69720373272536</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>66.90445977359236</v>
+        <v>66.90445977359197</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>50.42485619169625</v>
+        <v>50.42485619169602</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417138</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896908</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>161.9299707215272</v>
+        <v>161.9299707215301</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>165.6413368493148</v>
+        <v>165.6413368493143</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>29.23219049557873</v>
+        <v>29.23219049557833</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4415,10 +4415,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4494,34 +4494,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
         <v>625.3202087220412</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4731,37 +4731,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
         <v>274.7355609638946</v>
@@ -4780,73 +4780,73 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1215.88127337364</v>
+        <v>1215.881273373639</v>
       </c>
       <c r="C8" t="n">
-        <v>846.9187564332281</v>
+        <v>846.9187564332271</v>
       </c>
       <c r="D8" t="n">
-        <v>846.9187564332281</v>
+        <v>846.9187564332271</v>
       </c>
       <c r="E8" t="n">
-        <v>846.9187564332281</v>
+        <v>846.9187564332271</v>
       </c>
       <c r="F8" t="n">
-        <v>435.9328516436205</v>
+        <v>435.9328516436196</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674653</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674653</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.620445413573</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y8" t="n">
         <v>1602.481113437761</v>
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4956,43 +4956,43 @@
         <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
         <v>582.6005729437002</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,28 +5108,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1736.599915964471</v>
@@ -5181,22 +5181,22 @@
         <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>245.1301850426789</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5232,16 +5232,16 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V13" t="n">
-        <v>874.9271131227918</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W13" t="n">
-        <v>585.5099430858311</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="X13" t="n">
-        <v>585.5099430858311</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="Y13" t="n">
         <v>395.2468244550147</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5363,7 +5363,7 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>732.1698305154059</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M15" t="n">
         <v>1039.489963795367</v>
@@ -5430,10 +5430,10 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5497,49 +5497,49 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141293</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
         <v>1646.27469227828</v>
       </c>
       <c r="O18" t="n">
-        <v>2315.73845358094</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P18" t="n">
         <v>2520.760934363149</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,10 +5691,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
@@ -5743,19 +5743,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5837,10 +5837,10 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211722</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>966.693239001134</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N21" t="n">
         <v>1771.104817265285</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,31 +5928,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X22" t="n">
-        <v>303.4081673726149</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5980,61 +5980,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,31 +6056,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
         <v>1039.489963795367</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
         <v>2123.441607278215</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>484.4545387878463</v>
+        <v>484.4545387878459</v>
       </c>
       <c r="C25" t="n">
-        <v>315.5183558599394</v>
+        <v>315.518355859939</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581963</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581963</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V25" t="n">
-        <v>933.2366688293938</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W25" t="n">
-        <v>933.2366688293938</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="X25" t="n">
-        <v>705.2471179313765</v>
+        <v>705.247117931376</v>
       </c>
       <c r="Y25" t="n">
-        <v>484.4545387878463</v>
+        <v>484.4545387878459</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>841.8631140141293</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>1841.189502980822</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247865</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383447</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383447</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W28" t="n">
-        <v>385.5899330013841</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X28" t="n">
-        <v>318.009670603816</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,16 +6442,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6460,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,16 +6539,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
         <v>1302.911127126629</v>
@@ -6606,31 +6606,31 @@
         <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,10 +6639,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
         <v>1387.841167119728</v>
@@ -6651,22 +6651,22 @@
         <v>1336.906968946298</v>
       </c>
       <c r="T31" t="n">
-        <v>1113.121553735804</v>
+        <v>1113.121553735803</v>
       </c>
       <c r="U31" t="n">
-        <v>1113.121553735804</v>
+        <v>1113.121553735803</v>
       </c>
       <c r="V31" t="n">
-        <v>1113.121553735804</v>
+        <v>1113.121553735803</v>
       </c>
       <c r="W31" t="n">
-        <v>823.704383698843</v>
+        <v>823.7043836988429</v>
       </c>
       <c r="X31" t="n">
-        <v>595.7148328008257</v>
+        <v>595.7148328008255</v>
       </c>
       <c r="Y31" t="n">
-        <v>595.7148328008257</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,16 +6712,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,40 +6925,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,19 +7019,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341675</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.813592216475</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N36" t="n">
         <v>1346.676219880508</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183167</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690735</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409608</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748357</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742901</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769786</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373971</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805659</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098443</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.9892362638</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K39" t="n">
-        <v>2525.05892046586</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L39" t="n">
-        <v>3138.955990222749</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M39" t="n">
-        <v>3484.747546292013</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N39" t="n">
-        <v>4289.159124556164</v>
+        <v>4289.159124556163</v>
       </c>
       <c r="O39" t="n">
-        <v>4568.699189774861</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P39" t="n">
-        <v>4773.721670557071</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098069</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021847</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641234</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409491</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W39" t="n">
         <v>3808.539462681289</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475757</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710803</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="40">
@@ -7314,34 +7314,34 @@
         <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405894</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581963</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119731</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119731</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1164.055751909237</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>1164.055751909237</v>
       </c>
       <c r="V40" t="n">
-        <v>1164.055751909234</v>
+        <v>1164.055751909237</v>
       </c>
       <c r="W40" t="n">
-        <v>874.6385818722736</v>
+        <v>874.6385818722765</v>
       </c>
       <c r="X40" t="n">
-        <v>874.6385818722736</v>
+        <v>874.6385818722765</v>
       </c>
       <c r="Y40" t="n">
-        <v>874.6385818722736</v>
+        <v>874.6385818722765</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602865</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514089</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7435,25 +7435,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7487,16 +7487,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>953.6472828615134</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M42" t="n">
         <v>1722.015429253975</v>
@@ -7551,34 +7551,34 @@
         <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405894</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581963</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247865</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247865</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V43" t="n">
-        <v>709.4512536188996</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W43" t="n">
-        <v>709.4512536188996</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="X43" t="n">
-        <v>709.4512536188996</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="Y43" t="n">
-        <v>709.4512536188996</v>
+        <v>709.4512536188992</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028743</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823803</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.28419175141</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7663,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690735</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409608</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748357</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742901</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769786</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373971</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805659</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098443</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.9892362638</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K45" t="n">
-        <v>2525.05892046586</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L45" t="n">
-        <v>3138.955990222749</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M45" t="n">
-        <v>3446.276123502711</v>
+        <v>3446.276123502708</v>
       </c>
       <c r="N45" t="n">
-        <v>3776.138751166744</v>
+        <v>3776.138751166741</v>
       </c>
       <c r="O45" t="n">
-        <v>4055.678816385441</v>
+        <v>4055.678816385438</v>
       </c>
       <c r="P45" t="n">
-        <v>4575.979438121188</v>
+        <v>4575.979438121186</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098069</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021847</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641234</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409491</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681289</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475757</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710803</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6642370999743</v>
+        <v>571.6642370999739</v>
       </c>
       <c r="C46" t="n">
-        <v>571.6642370999743</v>
+        <v>571.6642370999739</v>
       </c>
       <c r="D46" t="n">
-        <v>421.5475976876386</v>
+        <v>421.5475976876381</v>
       </c>
       <c r="E46" t="n">
-        <v>273.6345041052455</v>
+        <v>273.634504105245</v>
       </c>
       <c r="F46" t="n">
-        <v>126.7445566073351</v>
+        <v>126.7445566073347</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141522</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W46" t="n">
-        <v>1020.446367141522</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X46" t="n">
-        <v>792.4568162435045</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y46" t="n">
-        <v>571.6642370999743</v>
+        <v>571.6642370999739</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>180.0237016735874</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>73.53204524670082</v>
+        <v>73.53204524669985</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>15.83804904622774</v>
+        <v>15.83804904622824</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>62.79465928983075</v>
+        <v>62.79465928983132</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>199.6230805871083</v>
+        <v>199.6230805871088</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>285.1031356539326</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.13752431970531</v>
+        <v>94.13752431970579</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10360,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>176.7176547498447</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>38.86002301949731</v>
+        <v>38.86002301949833</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928326</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>32.78140656352338</v>
+        <v>32.78140656352406</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928311</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11396,10 +11396,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>199.7396287231141</v>
+        <v>199.7396287231142</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>30.22416590758658</v>
+        <v>30.22416590758635</v>
       </c>
     </row>
     <row r="14">
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633886</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>85.66716743252408</v>
+        <v>85.66716743252452</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229426</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.45548819888901</v>
+        <v>14.45548819888947</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>77.9182692854866</v>
+        <v>77.918269285487</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>158.8051956154448</v>
+        <v>158.8051956154452</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>147.495953791907</v>
+        <v>147.4959537919072</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.90200946041011</v>
+        <v>17.90200946040719</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>14.1906433326225</v>
+        <v>14.19064333262295</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642674</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>137.2613779677989</v>
+        <v>137.2613779677993</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>847841.4164015057</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>847841.4164015056</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>847841.4164015061</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>847841.4164015061</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.230645907</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="I2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459073</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="K2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="M2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="N2" t="n">
         <v>527889.2306459072</v>
       </c>
-      <c r="L2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459071</v>
-      </c>
       <c r="O2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.230645907</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145979.3810050736</v>
+        <v>147709.4414611872</v>
       </c>
       <c r="C4" t="n">
-        <v>145979.3810050735</v>
+        <v>147709.4414611872</v>
       </c>
       <c r="D4" t="n">
-        <v>145979.3810050735</v>
+        <v>147709.4414611871</v>
       </c>
       <c r="E4" t="n">
-        <v>6357.276476069319</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="F4" t="n">
-        <v>6357.276476069319</v>
+        <v>7749.647172442679</v>
       </c>
       <c r="G4" t="n">
-        <v>6357.276476069163</v>
+        <v>7749.647172442679</v>
       </c>
       <c r="H4" t="n">
-        <v>6357.276476069163</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="I4" t="n">
-        <v>6357.27647606925</v>
+        <v>7749.647172442741</v>
       </c>
       <c r="J4" t="n">
-        <v>6357.27647606925</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="K4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="L4" t="n">
-        <v>6357.276476069314</v>
+        <v>7749.647172442678</v>
       </c>
       <c r="M4" t="n">
-        <v>6357.276476069316</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="N4" t="n">
-        <v>6357.276476069193</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="O4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="P4" t="n">
-        <v>6357.276476069316</v>
+        <v>7749.647172442679</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-264603.1436246362</v>
+        <v>-266333.2040807498</v>
       </c>
       <c r="C6" t="n">
-        <v>325364.7355899082</v>
+        <v>323634.6751337945</v>
       </c>
       <c r="D6" t="n">
-        <v>325364.7355899081</v>
+        <v>323634.6751337943</v>
       </c>
       <c r="E6" t="n">
-        <v>-95615.40825577473</v>
+        <v>-97007.77895214847</v>
       </c>
       <c r="F6" t="n">
-        <v>429544.6282211209</v>
+        <v>428152.2575247478</v>
       </c>
       <c r="G6" t="n">
-        <v>429544.6282211209</v>
+        <v>428152.2575247477</v>
       </c>
       <c r="H6" t="n">
-        <v>429544.6282211211</v>
+        <v>428152.2575247478</v>
       </c>
       <c r="I6" t="n">
-        <v>429544.6282211212</v>
+        <v>428152.2575247478</v>
       </c>
       <c r="J6" t="n">
-        <v>253121.4090285285</v>
+        <v>251729.0383321549</v>
       </c>
       <c r="K6" t="n">
-        <v>429544.6282211213</v>
+        <v>428152.2575247478</v>
       </c>
       <c r="L6" t="n">
-        <v>429544.6282211213</v>
+        <v>428152.2575247477</v>
       </c>
       <c r="M6" t="n">
-        <v>294743.6129872843</v>
+        <v>293351.2422909106</v>
       </c>
       <c r="N6" t="n">
-        <v>429544.6282211213</v>
+        <v>428152.2575247479</v>
       </c>
       <c r="O6" t="n">
-        <v>429544.6282211213</v>
+        <v>428152.2575247477</v>
       </c>
       <c r="P6" t="n">
-        <v>429544.6282211212</v>
+        <v>428152.2575247477</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26810,10 +26810,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26825,13 +26825,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>95.39299015045901</v>
+        <v>95.39299015045904</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>150.3569555942787</v>
+        <v>150.356955594279</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>62.69861478456079</v>
+        <v>62.69861478456102</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>35.61419889577155</v>
+        <v>35.61419889577246</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>171.3314970467849</v>
+        <v>171.3314970467852</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34783,19 +34783,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>513.2182750716003</v>
+        <v>513.2182750716</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>322.7897502027251</v>
+        <v>322.7897502027242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.8510818313019</v>
+        <v>103.8510818313024</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>269.8880742213555</v>
+        <v>269.888074221356</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>510.0474576375747</v>
+        <v>510.0474576375751</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>492.1965505854573</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>182.1505571047795</v>
+        <v>182.1505571047799</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>397.5324193126781</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>487.142031800311</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>349.2844000699637</v>
+        <v>349.2844000699646</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118043</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>282.0391115195478</v>
+        <v>282.0391115195484</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221104</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>287.7526615081883</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1500000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Output Files/1500000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2256860.767087528</v>
+        <v>2261800.029936559</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800624</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.511665968</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>63.10802839794225</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>32.4913874985855</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>58.85422515450318</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>121.1693910461987</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544525</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>7.944621118398112</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>26.53815412835837</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586891</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>28.11374845278275</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>34.84404103584545</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.322803821719</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>33.35146980186259</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037893</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>192.322803821724</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750042</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>36.8480622972813</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>183.8301087105965</v>
       </c>
       <c r="V22" t="n">
-        <v>185.211307737499</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849749</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1291651532057</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G26" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>171.0102824921632</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>54.40320730981966</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>25.58923446922705</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>12.81263415054053</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>149.0799667719507</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>195.5559609429028</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>135.5535868730193</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151966</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>196.8588188382704</v>
       </c>
     </row>
     <row r="44">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>48.44054302129858</v>
       </c>
       <c r="U46" t="n">
-        <v>224.8952567231525</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.892406545184</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.892406545184</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1485.892406545184</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1100.10415394694</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>689.1182491573327</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>271.1544410555196</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.723949158869</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545184</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545184</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545184</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571346</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942401</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942401</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E4" t="n">
-        <v>402.6523129118469</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F4" t="n">
-        <v>255.7623654139366</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>86.76256515226899</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.946714969782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1485.946714969782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1485.946714969782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500976</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500976</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230862</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.946714969782</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.946714969782</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747038</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692483</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423994</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673413</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.9429818203633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.81559303506</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430046</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064341</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064341</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064341</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2689.124221201659</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2512.946733515829</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2512.946733515829</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2512.946733515829</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="V8" t="n">
-        <v>2512.946733515829</v>
+        <v>2339.279987383381</v>
       </c>
       <c r="W8" t="n">
-        <v>2512.946733515829</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.480975254749</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>699.7312584965529</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>551.8181649141598</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>404.9282174162494</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5056,37 +5056,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471194</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>731.31772835508</v>
+        <v>1263.800259427147</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181194</v>
+        <v>974.3830893901859</v>
       </c>
       <c r="X13" t="n">
-        <v>247.6350999123426</v>
+        <v>746.3935384921685</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.6350999123426</v>
+        <v>525.6009593486384</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>462.7283310300495</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.9054447955006</v>
+        <v>247.6350999123374</v>
       </c>
       <c r="C16" t="n">
-        <v>130.9054447955006</v>
+        <v>247.6350999123374</v>
       </c>
       <c r="D16" t="n">
-        <v>130.9054447955006</v>
+        <v>247.6350999123374</v>
       </c>
       <c r="E16" t="n">
-        <v>130.9054447955006</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>130.9054447955006</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
@@ -5442,7 +5442,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119732</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035284</v>
+        <v>1304.650812152121</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247899</v>
+        <v>1080.865396941627</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383481</v>
+        <v>791.7367581551849</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324612</v>
+        <v>537.0522699492981</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447955006</v>
+        <v>247.6350999123374</v>
       </c>
       <c r="X16" t="n">
-        <v>130.9054447955006</v>
+        <v>247.6350999123374</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.9054447955006</v>
+        <v>247.6350999123374</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5539,28 +5539,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701563</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507007</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.67826817104</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>1172.567366824712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>944.5778159266949</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5785,7 +5785,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>644.675512255521</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619851</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>394.223678370532</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C22" t="n">
-        <v>394.223678370532</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028587</v>
@@ -5937,25 +5937,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333287</v>
+        <v>1002.234178539729</v>
       </c>
       <c r="V22" t="n">
-        <v>911.6303993055099</v>
+        <v>1002.234178539729</v>
       </c>
       <c r="W22" t="n">
-        <v>622.2132292685493</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="X22" t="n">
-        <v>394.223678370532</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="Y22" t="n">
-        <v>394.223678370532</v>
+        <v>712.8170085027681</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822459</v>
@@ -5989,13 +5989,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6068,22 +6068,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>644.675512255521</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619851</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028587</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.1698261166694</v>
+        <v>994.3109288932103</v>
       </c>
       <c r="C28" t="n">
-        <v>152.1698261166694</v>
+        <v>825.3747459653034</v>
       </c>
       <c r="D28" t="n">
-        <v>152.1698261166694</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E28" t="n">
-        <v>152.1698261166694</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F28" t="n">
-        <v>152.1698261166694</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028589</v>
@@ -6393,43 +6393,43 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471244</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333287</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="V28" t="n">
-        <v>844.0280401273998</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="W28" t="n">
-        <v>554.6108700904392</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="X28" t="n">
-        <v>554.6108700904392</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="Y28" t="n">
-        <v>333.8182909469091</v>
+        <v>1167.048587976203</v>
       </c>
     </row>
     <row r="29">
@@ -6442,25 +6442,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6487,25 +6487,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,19 +6530,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
         <v>674.428562457161</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>1167.048587976198</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6785,22 +6785,22 @@
         <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>576.3642008327098</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>758.0126656629495</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>758.0126656629495</v>
       </c>
     </row>
     <row r="35">
@@ -6925,49 +6925,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7022,22 +7022,22 @@
         <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1046.700508672316</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7259,16 +7259,16 @@
         <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>1278.123691414372</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7438,25 +7438,25 @@
         <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7496,16 +7496,16 @@
         <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028589</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
         <v>97.21709146028589</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980069</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585751</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557907</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.99626047346</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262965</v>
+        <v>1164.055751909239</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>1164.055751909239</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>1164.055751909239</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>874.6385818722786</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028589</v>
+        <v>646.6490309742612</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028589</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028589</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028589</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028589</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028589</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1250.0664190378</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>1250.0664190378</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>1250.0664190378</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>960.6492490008393</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905256</v>
+        <v>732.6596981028219</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270311</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.044284299266</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229573</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.337678916511</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>253.7371603504729</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.0374492781462</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.0374492781462</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10360,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119814</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.51353349283</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>217.2936022879825</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>33.3868515673181</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>133.142098661515</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>5.598006161879255</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338503</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>249.6749360393043</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>102.4072436879809</v>
       </c>
       <c r="V22" t="n">
-        <v>66.926335586329</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="W25" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>8.82169768977414</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>112.0903611535579</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>154.2427457127102</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>154.4341869480873</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>103.0576765518773</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>90.96703739368823</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.278393308918</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338074</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>21.72583451382442</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>173.1070180370907</v>
       </c>
       <c r="U46" t="n">
-        <v>61.34209567542487</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015061</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015061</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015061</v>
       </c>
     </row>
     <row r="16">
@@ -26319,43 +26319,43 @@
         <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="F2" t="n">
         <v>527889.2306459072</v>
       </c>
       <c r="G2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="H2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="J2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="I2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.2306459073</v>
-      </c>
       <c r="K2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="N2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="O2" t="n">
-        <v>527889.230645907</v>
-      </c>
       <c r="P2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459066</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>147709.4414611872</v>
       </c>
       <c r="E4" t="n">
+        <v>7749.647172442679</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7749.647172442679</v>
+      </c>
+      <c r="G4" t="n">
         <v>7749.64717244268</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7749.64717244268</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7749.647172442677</v>
       </c>
       <c r="H4" t="n">
         <v>7749.64717244268</v>
       </c>
       <c r="I4" t="n">
-        <v>7749.647172442679</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="J4" t="n">
         <v>7749.647172442681</v>
       </c>
       <c r="K4" t="n">
-        <v>7749.647172442677</v>
+        <v>7749.647172442679</v>
       </c>
       <c r="L4" t="n">
-        <v>7749.647172442675</v>
+        <v>7749.647172442676</v>
       </c>
       <c r="M4" t="n">
         <v>7749.647172442676</v>
       </c>
       <c r="N4" t="n">
-        <v>7749.647172442736</v>
+        <v>7749.647172442676</v>
       </c>
       <c r="O4" t="n">
-        <v>7749.647172442679</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="P4" t="n">
         <v>7749.647172442677</v>
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871665</v>
@@ -26496,16 +26496,16 @@
         <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871667</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266333.2040807498</v>
+        <v>-266333.2040807499</v>
       </c>
       <c r="C6" t="n">
         <v>323634.6751337945</v>
       </c>
       <c r="D6" t="n">
-        <v>323634.6751337944</v>
+        <v>323634.675133794</v>
       </c>
       <c r="E6" t="n">
-        <v>-97982.37021187025</v>
+        <v>-97105.23807812053</v>
       </c>
       <c r="F6" t="n">
-        <v>427177.6662650262</v>
+        <v>428054.7983987757</v>
       </c>
       <c r="G6" t="n">
-        <v>427177.6662650259</v>
+        <v>428054.7983987755</v>
       </c>
       <c r="H6" t="n">
-        <v>427177.666265026</v>
+        <v>428054.7983987753</v>
       </c>
       <c r="I6" t="n">
-        <v>427177.666265026</v>
+        <v>428054.7983987752</v>
       </c>
       <c r="J6" t="n">
-        <v>250754.4470724333</v>
+        <v>251631.5792061824</v>
       </c>
       <c r="K6" t="n">
-        <v>427177.6662650259</v>
+        <v>428054.7983987757</v>
       </c>
       <c r="L6" t="n">
-        <v>427177.666265026</v>
+        <v>428054.7983987757</v>
       </c>
       <c r="M6" t="n">
-        <v>292376.651031189</v>
+        <v>293253.7831649382</v>
       </c>
       <c r="N6" t="n">
-        <v>427177.6662650261</v>
+        <v>428054.7983987753</v>
       </c>
       <c r="O6" t="n">
-        <v>427177.666265026</v>
+        <v>428054.7983987756</v>
       </c>
       <c r="P6" t="n">
-        <v>427177.6662650259</v>
+        <v>428054.7983987751</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="F4" t="n">
         <v>1215.213643253574</v>
       </c>
-      <c r="F4" t="n">
-        <v>1215.213643253573</v>
-      </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>260.8147443664149</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>99.1084150172357</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>123.6795013432096</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>323.8796165089774</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>260.7609790260631</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831826</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263384</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>46.53378145641359</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>224.6860133799309</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060684</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>120.5017245654296</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-8.463989355239118e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.632298752070436e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28493,7 +28493,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28532,7 +28532,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.487817442267745e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.190208883248476e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28784,7 +28784,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>5.373124167817878e-12</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-1.104943754957264e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29465,7 +29465,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-8.463989355239118e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-9.62835207805244e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30656,7 +30656,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>4.619001477597825e-12</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,31 +31120,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31773,13 +31773,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31794,7 +31794,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813463</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31922,10 +31922,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31934,7 +31934,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,13 +31946,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32010,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32031,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32159,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32171,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32247,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32268,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32396,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32408,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.141174696826827e-12</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35421,19 +35421,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879393</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734237</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056037</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35658,19 +35658,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>327.2930933377838</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35895,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>536.1008625915812</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504664</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789776</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37080,7 +37080,7 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081092</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951473</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504664</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221093</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
         <v>803.580930408112</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504664</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
         <v>803.580930408112</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504664</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37952,7 +37952,7 @@
         <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206075</v>
+        <v>236.237351520608</v>
       </c>
       <c r="P43" t="n">
         <v>178.3836006118008</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415062</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
